--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1835111.349048084</v>
+        <v>1832776.237846104</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16.42711829833386</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.1205759320732</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>20.20520580535267</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>147.0217944968018</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>304.263862817123</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.0424133190815</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877527</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>60.68230994686854</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,10 +1190,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826039</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>38.37250637580733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.050963054566</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763391</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>55.3008804104206</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.4401302107717</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161913524</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.511541534052</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105686</v>
       </c>
     </row>
     <row r="35">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362948</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703298</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1966.993846941858</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C2" t="n">
-        <v>1598.031330001446</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D2" t="n">
-        <v>1239.765631394696</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>853.9773787964514</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872917</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2353.59368700598</v>
+        <v>1537.058030511571</v>
       </c>
       <c r="Y2" t="n">
-        <v>2353.59368700598</v>
+        <v>1146.918698535759</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C4" t="n">
-        <v>837.079342274803</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624673</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800742</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904424</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394854</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>549.7445279085429</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1432.831501090107</v>
+        <v>747.626661887866</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>747.626661887866</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.57067313004</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.57067313004</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.431341154228</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>410.3138329979533</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493312</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.6394815529</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>878.3737829461495</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>878.3737829461495</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>467.3878781565419</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533245</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557433</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139842</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.9161830442239</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5285,40 +5285,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703097</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703155</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424086</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424086</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7196,25 +7196,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,19 +7245,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438171</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7433,7 +7433,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400744</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121675</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121675</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121675</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121675</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648822</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611862</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138443</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703141</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,19 +7719,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438171</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>21.18099370047543</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417438</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-8.207266606532238e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-9.3441349837484e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856364</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431603</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.533690297528807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228877</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>124.5310997715167</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>84.99383243579747</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823068</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.59775584152624</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294937</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392193904</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119167</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="9">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907544</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
@@ -26341,19 +26341,19 @@
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.256391744251</v>
-      </c>
       <c r="I4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744249</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744242</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744246</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789008.4983343555</v>
+        <v>-789008.4983343559</v>
       </c>
       <c r="C6" t="n">
-        <v>325743.2852415635</v>
+        <v>325743.2852415637</v>
       </c>
       <c r="D6" t="n">
-        <v>165727.8224935648</v>
+        <v>165727.8224935647</v>
       </c>
       <c r="E6" t="n">
-        <v>109561.7067677473</v>
+        <v>109526.9688423118</v>
       </c>
       <c r="F6" t="n">
-        <v>434974.1685751029</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.168575103</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="H6" t="n">
-        <v>434974.1685751028</v>
+        <v>434939.4306496672</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751026</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="J6" t="n">
-        <v>267368.9907651199</v>
+        <v>267334.2528396843</v>
       </c>
       <c r="K6" t="n">
-        <v>434974.1685751025</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="L6" t="n">
-        <v>386680.1985669117</v>
+        <v>386645.4606414761</v>
       </c>
       <c r="M6" t="n">
-        <v>349919.1406395906</v>
+        <v>349884.402714155</v>
       </c>
       <c r="N6" t="n">
-        <v>434974.1685751025</v>
+        <v>434939.4306496673</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751029</v>
+        <v>434939.4306496667</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751028</v>
+        <v>434939.4306496668</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>390.4489274433776</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>263.6105247463958</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>80.8509579418146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>205.5044495836845</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>218.2510972742058</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50.41917880355999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.542240033013258</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747053</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>350.2394157065849</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.6368266683306</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-4.796661474883757e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>272.7569329364649</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,25 +33257,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948329</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34375,7 +34375,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34778,25 +34778,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>356.6056756965984</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652761</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>553.3803448964255</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,13 +35504,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066233</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36130,7 +36130,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010493</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>134.2025531565907</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37075,7 +37075,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281453</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572999014</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38023,7 +38023,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
